--- a/pred_result/test_12_30_noif.xlsx
+++ b/pred_result/test_12_30_noif.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0BC21-40DA-4AB7-9BE1-81D087B0FB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{294CADF4-101B-4AE7-96E6-9166EC4AC5AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10548" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="test_12_30_noif" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="21">
   <si>
     <t>E_list</t>
   </si>
@@ -67,6 +67,9 @@
     <t>TN</t>
   </si>
   <si>
+    <t>entropy_ave</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -937,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M320"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="L320" sqref="L320"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="J328" sqref="J328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6111,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>11.2660813558669</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>11.5979322251819</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>10.064002127874399</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>5.1159291494460302</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:11">
       <c r="A309">
         <v>5.3280631474086197</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>5.8509262629917602</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:11">
       <c r="A311">
         <v>5.5211550848824604</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:11">
       <c r="A312">
         <v>4.8168895812261603</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:11">
       <c r="A313">
         <v>5.6023684910365503</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:11">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:11">
       <c r="A315">
         <v>53</v>
       </c>
@@ -6291,73 +6294,96 @@
       <c r="D315">
         <v>83.012820512820497</v>
       </c>
-      <c r="I315" t="s">
+    </row>
+    <row r="319" spans="1:11">
+      <c r="H319" t="s">
         <v>11</v>
       </c>
-      <c r="J315" t="s">
+      <c r="I319" t="s">
         <v>12</v>
       </c>
-      <c r="K315" t="s">
+      <c r="J319" t="s">
         <v>13</v>
       </c>
-      <c r="L315" t="s">
+      <c r="K319" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
-      <c r="I316">
-        <f>COUNTIFS($B2:$B313,"abnormal pipe image",$F2:$F313,$F304)</f>
+    <row r="320" spans="1:11">
+      <c r="H320">
+        <f>COUNTIFS($B2:$B313,$B237,$F2:$F313,$F307)</f>
         <v>222</v>
       </c>
-      <c r="J316">
-        <f>COUNTIFS($B2:$B313,"abnormal pipe image",$F2:$F313,$F303)</f>
+      <c r="I320">
+        <f>COUNTIFS($B2:$B313,$B307,$F2:$F313,$F308)</f>
         <v>37</v>
       </c>
-      <c r="K316">
-        <f>COUNTIFS($B2:$B313,"normal pipe image",$F2:$F313,$F304)</f>
-        <v>6</v>
-      </c>
-      <c r="L316">
-        <f>COUNTIFS($B2:$B313,"abnormal pipe image",$F2:$F313,$F303)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13">
-      <c r="I319" t="s">
+      <c r="J320">
+        <f>COUNTIFS($B2:$B313,$B309,$F2:$F313,$F307)</f>
+        <v>6</v>
+      </c>
+      <c r="K320">
+        <f>COUNTIFS($B2:$B313,$B300,$F2:$F313,$F308)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="7:12">
+      <c r="G321" t="s">
         <v>15</v>
       </c>
-      <c r="J319" t="s">
+      <c r="H321" t="e">
+        <f>AVERAGEIFS($H$2:$H313,$B$2:$B$313,"abnormal pipe image",$F$2:$F$313,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I321" t="e">
+        <f>AVERAGEIFS($H$2:$H313,$B$2:$B$313,"abnormal pipe image",$F$2:$F$313,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J321" t="e">
+        <f>AVERAGEIFS($H$2:$H313,$B$2:$B$313,"normal pipe image",$F$2:$F$313,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K321" t="e">
+        <f>AVERAGEIFS($H$2:$H313,$B$2:$B$313,"normal pipe image",$F$2:$F$313,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="7:12">
+      <c r="H323" t="s">
         <v>16</v>
       </c>
-      <c r="K319" t="s">
+      <c r="I323" t="s">
         <v>17</v>
       </c>
-      <c r="L319" t="s">
+      <c r="J323" t="s">
         <v>18</v>
       </c>
-      <c r="M319" t="s">
+      <c r="K323" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
-      <c r="I320">
-        <f>(I316+L316)/(I316+J316+K316+L316)</f>
-        <v>0.85761589403973515</v>
-      </c>
-      <c r="J320">
-        <f>I316/(I316+J316)</f>
+      <c r="L323" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="7:12">
+      <c r="H324">
+        <f>(H320+K320)/(H320+I320+J320+K320)</f>
+        <v>0.86217948717948723</v>
+      </c>
+      <c r="I324">
+        <f>H320/(H320+I320)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K320">
-        <f>I316/(I316+K316)</f>
+      <c r="J324">
+        <f>H320/(H320+J320)</f>
         <v>0.97368421052631582</v>
       </c>
-      <c r="L320">
-        <f>L316/(J316+L316)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M320">
-        <f>(2*K320*J320)/(K320+J320)</f>
+      <c r="K324">
+        <f>K320/(I320+K320)</f>
+        <v>0.55952380952380953</v>
+      </c>
+      <c r="L324">
+        <f>(2*J324*I324)/(J324+I324)</f>
         <v>0.9117043121149897</v>
       </c>
     </row>
